--- a/Linkdin_profiles/Lahore_Python_Developers.xlsx
+++ b/Linkdin_profiles/Lahore_Python_Developers.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B105"/>
+  <dimension ref="A1:B171"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -446,7 +446,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>https://pk.linkedin.com/in/hafiz-farhan-nawaz-a41677145?trk=public_profile_browsemap_profile-result-card_result-card_full-click</t>
+          <t>https://pk.linkedin.com/in/rizwan-amin-979b38130</t>
         </is>
       </c>
     </row>
@@ -456,7 +456,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>https://pk.linkedin.com/in/ghulam-nabi-989001186?trk=public_profile_browsemap</t>
+          <t>https://pk.linkedin.com/in/arslanali4343/en</t>
         </is>
       </c>
     </row>
@@ -466,7 +466,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>https://www.salaryexpert.com/salary/job/python-developer/pakistan</t>
+          <t>https://pk.linkedin.com/in/connectaliraza</t>
         </is>
       </c>
     </row>
@@ -476,7 +476,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>https://botreetechnologies.medium.com/top-python-development-companies-b6d56a0c5757</t>
+          <t>https://pk.linkedin.com/in/maqsood-malik-19b3b71b3?trk=public_profile_browsemap</t>
         </is>
       </c>
     </row>
@@ -486,7 +486,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>https://www.onlinedegree.com/careers/computers/python-developer/</t>
+          <t>https://pk.linkedin.com/in/nabgha-iftikhar-08b1641a7</t>
         </is>
       </c>
     </row>
@@ -496,7 +496,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>https://brainstation.io/career-guides/what-does-a-python-developer-do</t>
+          <t>https://pk.linkedin.com/in/mianmujeeb?trk=public_profile_browsemap</t>
         </is>
       </c>
     </row>
@@ -506,7 +506,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>https://pk.linkedin.com/in/ali-raza-6673011ba</t>
+          <t>https://pk.linkedin.com/in/maaqib121</t>
         </is>
       </c>
     </row>
@@ -516,7 +516,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>https://pk.linkedin.com/in/khurram-irshad-42359b202</t>
+          <t>https://pk.linkedin.com/in/malik-umer-farooq-b73a531ba</t>
         </is>
       </c>
     </row>
@@ -526,7 +526,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>https://pk.linkedin.com/in/noman-nawaz-027819211</t>
+          <t>https://pk.linkedin.com/in/saif-ullah-ab07b753</t>
         </is>
       </c>
     </row>
@@ -536,7 +536,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>https://pk.linkedin.com/in/asad-raza-20b843122</t>
+          <t>https://pk.linkedin.com/in/ameer-hamza-butt-597458194</t>
         </is>
       </c>
     </row>
@@ -546,7 +546,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>https://pk.linkedin.com/in/ali-asghar-6827621a4</t>
+          <t>https://pk.linkedin.com/in/hannan-haider-farooq-508218192</t>
         </is>
       </c>
     </row>
@@ -556,7 +556,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>https://pk.linkedin.com/in/arslanali4343/en</t>
+          <t>https://pk.linkedin.com/in/hareem-bilal-1853a718b</t>
         </is>
       </c>
     </row>
@@ -566,7 +566,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>https://pk.linkedin.com/in/salmantahir786</t>
+          <t>https://pk.linkedin.com/in/saleet-ul-hassan-0935b8167</t>
         </is>
       </c>
     </row>
@@ -576,7 +576,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>https://pk.linkedin.com/in/muhammad-shahid-979961130</t>
+          <t>https://pk.linkedin.com/in/umair-cheema-b6660583</t>
         </is>
       </c>
     </row>
@@ -586,7 +586,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>https://pk.linkedin.com/in/maaqib121</t>
+          <t>https://pk.linkedin.com/in/engineerarbaaz</t>
         </is>
       </c>
     </row>
@@ -596,7 +596,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>https://pk.linkedin.com/in/amna-khalid-74a152171</t>
+          <t>https://pk.linkedin.com/in/shahzaib-akash-430014115</t>
         </is>
       </c>
     </row>
@@ -606,7 +606,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>https://pk.linkedin.com/in/waseem-mehr</t>
+          <t>https://pk.linkedin.com/in/muhammad-qasim-python-dev</t>
         </is>
       </c>
     </row>
@@ -616,7 +616,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>https://pk.linkedin.com/in/rizwan-amin-979b38130</t>
+          <t>https://pk.linkedin.com/in/tajwarbilal</t>
         </is>
       </c>
     </row>
@@ -626,7 +626,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>https://pk.linkedin.com/in/yasir-hameed-370959a1</t>
+          <t>https://pk.linkedin.com/in/waheed-amir</t>
         </is>
       </c>
     </row>
@@ -636,7 +636,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>https://pk.linkedin.com/in/saleet-ul-hassan-0935b8167</t>
+          <t>https://pk.linkedin.com/in/habib-ali-7a9b03135</t>
         </is>
       </c>
     </row>
@@ -646,7 +646,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>https://pk.linkedin.com/in/saif-ullah-ab07b753</t>
+          <t>https://pk.linkedin.com/in/attiq-ur-rehman-4ba7b4a6</t>
         </is>
       </c>
     </row>
@@ -656,7 +656,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>https://pk.linkedin.com/in/nabgha-iftikhar-08b1641a7</t>
+          <t>https://pk.linkedin.com/in/noor-ul-ain-7908b9155</t>
         </is>
       </c>
     </row>
@@ -666,7 +666,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>https://pk.linkedin.com/in/maqsood-malik-19b3b71b3?trk=public_profile_browsemap</t>
+          <t>https://pk.linkedin.com/in/ammar-zahoor-5356b7194</t>
         </is>
       </c>
     </row>
@@ -676,7 +676,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>https://pk.linkedin.com/in/malik-umer-farooq-b73a531ba</t>
+          <t>https://pk.linkedin.com/in/mumarsohail</t>
         </is>
       </c>
     </row>
@@ -686,7 +686,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>https://pk.linkedin.com/in/ameer-hamza-butt-597458194</t>
+          <t>https://pk.linkedin.com/in/muhammad-haris-yousaf-949858142</t>
         </is>
       </c>
     </row>
@@ -696,7 +696,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>https://pk.linkedin.com/in/connectaliraza</t>
+          <t>https://pk.linkedin.com/in/abdul-mannan-7441a5204</t>
         </is>
       </c>
     </row>
@@ -706,7 +706,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>https://pk.linkedin.com/in/mianmujeeb?trk=public_profile_browsemap</t>
+          <t>https://pk.linkedin.com/in/salman-bhatti-78429a1a3</t>
         </is>
       </c>
     </row>
@@ -716,7 +716,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>https://pk.linkedin.com/in/umair-cheema-b6660583</t>
+          <t>https://pk.linkedin.com/in/hafizabrarshah</t>
         </is>
       </c>
     </row>
@@ -726,7 +726,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>https://pk.linkedin.com/in/engineerarbaaz</t>
+          <t>https://pk.linkedin.com/in/syed-kashif-8b48a015b</t>
         </is>
       </c>
     </row>
@@ -736,7 +736,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>https://pk.linkedin.com/in/shahzaib-akash-430014115</t>
+          <t>https://pk.linkedin.com/in/alizaibofficial</t>
         </is>
       </c>
     </row>
@@ -746,7 +746,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>https://pk.linkedin.com/in/hareem-bilal-1853a718b</t>
+          <t>https://pk.linkedin.com/in/arbaz-khalid</t>
         </is>
       </c>
     </row>
@@ -756,7 +756,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>https://pk.linkedin.com/in/tajwarbilal</t>
+          <t>https://pk.linkedin.com/in/rizwan-ibrahim-6141161a1</t>
         </is>
       </c>
     </row>
@@ -766,7 +766,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>https://pk.linkedin.com/in/habib-ali-7a9b03135</t>
+          <t>https://pk.linkedin.com/in/asad-ali-b58863149</t>
         </is>
       </c>
     </row>
@@ -776,7 +776,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>https://pk.linkedin.com/in/hannan-haider-farooq-508218192</t>
+          <t>https://pk.linkedin.com/in/imumar</t>
         </is>
       </c>
     </row>
@@ -786,7 +786,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>https://pk.linkedin.com/in/nouman-akram</t>
+          <t>https://pk.linkedin.com/in/meharusama</t>
         </is>
       </c>
     </row>
@@ -796,7 +796,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>https://pk.linkedin.com/in/mbxr-ateeq</t>
+          <t>https://pk.linkedin.com/in/moosa-raza-251041189</t>
         </is>
       </c>
     </row>
@@ -806,7 +806,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>https://pk.linkedin.com/in/muhammad-qasim-python-dev</t>
+          <t>https://pk.linkedin.com/in/muhammad-osama-104985121</t>
         </is>
       </c>
     </row>
@@ -816,7 +816,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>https://pk.linkedin.com/in/attiq-ur-rehman-4ba7b4a6</t>
+          <t>https://pk.linkedin.com/in/muzamil-anwer-19b0901a6?trk=public_profile_browsemap</t>
         </is>
       </c>
     </row>
@@ -826,7 +826,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>https://pk.linkedin.com/in/syed-kashif-8b48a015b</t>
+          <t>https://pk.linkedin.com/in/muhammad-junaid-2967a0157</t>
         </is>
       </c>
     </row>
@@ -836,7 +836,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>https://pk.linkedin.com/in/waheed-amir</t>
+          <t>https://pk.linkedin.com/in/aafaq-tahir-a5255720b</t>
         </is>
       </c>
     </row>
@@ -846,7 +846,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>https://pk.linkedin.com/in/ammar-zahoor-5356b7194</t>
+          <t>https://pk.linkedin.com/in/muhammad-osama-104985121</t>
         </is>
       </c>
     </row>
@@ -856,7 +856,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>https://pk.linkedin.com/in/alizaibofficial</t>
+          <t>https://pk.linkedin.com/in/atif-raza-097507194</t>
         </is>
       </c>
     </row>
@@ -866,7 +866,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>https://pk.linkedin.com/in/salman-bhatti-78429a1a3</t>
+          <t>https://pk.linkedin.com/in/muhammad-arshad-khalil-6097b5196</t>
         </is>
       </c>
     </row>
@@ -876,7 +876,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>https://pk.linkedin.com/in/muhammad-haris-yousaf-949858142</t>
+          <t>https://pk.linkedin.com/in/muhammad-zeeshan-tariq-68525b144</t>
         </is>
       </c>
     </row>
@@ -886,7 +886,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>https://pk.linkedin.com/in/noor-ul-ain-7908b9155</t>
+          <t>https://pk.linkedin.com/in/arslan-ahmad-b45b38147</t>
         </is>
       </c>
     </row>
@@ -896,7 +896,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>https://pk.linkedin.com/in/abdul-mannan-7441a5204</t>
+          <t>https://pk.linkedin.com/in/muhammad-anees-liaqat-ab4b50137</t>
         </is>
       </c>
     </row>
@@ -906,7 +906,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>https://pk.linkedin.com/in/hafizabrarshah</t>
+          <t>https://pk.linkedin.com/in/zaheer-ud-din-a5252a70</t>
         </is>
       </c>
     </row>
@@ -916,7 +916,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>https://pk.linkedin.com/in/arbaz-khalid</t>
+          <t>https://pk.linkedin.com/in/muhammadahsanpakistan</t>
         </is>
       </c>
     </row>
@@ -926,7 +926,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>https://pk.linkedin.com/in/rizwan-ibrahim-6141161a1</t>
+          <t>https://pk.linkedin.com/in/rizwanarshad9193</t>
         </is>
       </c>
     </row>
@@ -936,7 +936,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>https://pk.linkedin.com/in/mumarsohail</t>
+          <t>https://pk.linkedin.com/in/aqibmehmood-software</t>
         </is>
       </c>
     </row>
@@ -946,7 +946,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>https://pk.linkedin.com/in/imumar</t>
+          <t>https://pk.linkedin.com/in/mudassar-kamal-321367121</t>
         </is>
       </c>
     </row>
@@ -956,7 +956,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>https://pk.linkedin.com/in/meharusama</t>
+          <t>https://pk.linkedin.com/in/mgcoder</t>
         </is>
       </c>
     </row>
@@ -966,7 +966,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>https://pk.linkedin.com/in/moosa-raza-251041189</t>
+          <t>https://pk.linkedin.com/in/shehram-tahir-98aba2144</t>
         </is>
       </c>
     </row>
@@ -976,7 +976,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>https://pk.linkedin.com/in/asad-ali-b58863149</t>
+          <t>https://pk.linkedin.com/in/ahmedjaved701</t>
         </is>
       </c>
     </row>
@@ -986,7 +986,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>https://pk.linkedin.com/in/arslan-ahmad-b45b38147</t>
+          <t>https://pk.linkedin.com/in/faisal-javed-2a3340203</t>
         </is>
       </c>
     </row>
@@ -996,7 +996,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>https://pk.linkedin.com/in/muzamil-anwer-19b0901a6?trk=public_profile_browsemap</t>
+          <t>https://pk.linkedin.com/in/haseeb-shaukat73</t>
         </is>
       </c>
     </row>
@@ -1006,7 +1006,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>https://pk.linkedin.com/in/muhammad-aamir-640a0217a</t>
+          <t>https://pk.linkedin.com/in/muhammad-asif-saleem-sidhu</t>
         </is>
       </c>
     </row>
@@ -1016,7 +1016,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>https://pk.linkedin.com/in/aafaq-tahir-a5255720b</t>
+          <t>https://pk.linkedin.com/in/ashar-rahim-09a954185</t>
         </is>
       </c>
     </row>
@@ -1026,7 +1026,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>https://pk.linkedin.com/in/muhammad-junaid-2967a0157</t>
+          <t>https://pk.linkedin.com/in/ali-ahmad-44ab921b8</t>
         </is>
       </c>
     </row>
@@ -1036,7 +1036,7 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>https://pk.linkedin.com/in/atif-raza-097507194</t>
+          <t>https://pk.linkedin.com/in/muhammad-naveed-6580b8202</t>
         </is>
       </c>
     </row>
@@ -1046,7 +1046,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>https://pk.linkedin.com/in/muhammad-anees-liaqat-ab4b50137</t>
+          <t>https://pk.linkedin.com/in/muhammad-yasin-7167281b3</t>
         </is>
       </c>
     </row>
@@ -1056,7 +1056,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>https://pk.linkedin.com/in/muhammad-arshad-khalil-6097b5196</t>
+          <t>https://pk.linkedin.com/in/usama-zaid-pak</t>
         </is>
       </c>
     </row>
@@ -1066,7 +1066,7 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>https://pk.linkedin.com/in/muhammad-zeeshan-tariq-68525b144</t>
+          <t>https://pk.linkedin.com/in/aon-raza-8238a31a3</t>
         </is>
       </c>
     </row>
@@ -1076,7 +1076,7 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>https://pk.linkedin.com/in/zaheer-ud-din-a5252a70</t>
+          <t>https://pk.linkedin.com/in/muhammad-kamran-28b565b8</t>
         </is>
       </c>
     </row>
@@ -1086,7 +1086,7 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>https://pk.linkedin.com/in/shawalahmad</t>
+          <t>https://pk.linkedin.com/in/atif-ahmed-a60a5b128</t>
         </is>
       </c>
     </row>
@@ -1096,7 +1096,7 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>https://pk.linkedin.com/in/rizwanarshad9193</t>
+          <t>https://pk.linkedin.com/in/m-arsalan-mudni-49417654</t>
         </is>
       </c>
     </row>
@@ -1106,7 +1106,7 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>https://pk.linkedin.com/in/mudassar-kamal-321367121</t>
+          <t>https://pk.linkedin.com/in/raiamir12</t>
         </is>
       </c>
     </row>
@@ -1116,7 +1116,7 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>https://pk.linkedin.com/in/muhammadahsanpakistan</t>
+          <t>https://pk.linkedin.com/in/muhammad-rizwan-a8286920a</t>
         </is>
       </c>
     </row>
@@ -1126,7 +1126,7 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>https://pk.linkedin.com/in/mgcoder</t>
+          <t>https://pk.linkedin.com/in/noman-ali-a7331718a</t>
         </is>
       </c>
     </row>
@@ -1136,7 +1136,7 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>https://pk.linkedin.com/in/aqibmehmood-software</t>
+          <t>https://pk.linkedin.com/in/osamaz16</t>
         </is>
       </c>
     </row>
@@ -1146,7 +1146,7 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>https://pk.linkedin.com/in/noman-ali-a7331718a</t>
+          <t>https://pk.linkedin.com/in/usama-ahmer-531a1a10a</t>
         </is>
       </c>
     </row>
@@ -1156,7 +1156,7 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>https://pk.linkedin.com/in/shehram-tahir-98aba2144</t>
+          <t>https://pk.linkedin.com/in/abdul-rehman-50765318b</t>
         </is>
       </c>
     </row>
@@ -1166,7 +1166,7 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>https://pk.linkedin.com/in/ahmedjaved701</t>
+          <t>https://pk.linkedin.com/in/ahwar</t>
         </is>
       </c>
     </row>
@@ -1176,7 +1176,7 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>https://pk.linkedin.com/in/muhammad-asif-saleem-sidhu</t>
+          <t>https://pk.linkedin.com/in/muhammad-rehan-3b47a3165</t>
         </is>
       </c>
     </row>
@@ -1186,7 +1186,7 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>https://pk.linkedin.com/in/muhammad-yasin-7167281b3</t>
+          <t>https://pk.linkedin.com/in/ali-tahir1010</t>
         </is>
       </c>
     </row>
@@ -1196,7 +1196,7 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>https://pk.linkedin.com/in/meharbanliaquat</t>
+          <t>https://pk.linkedin.com/in/umair-akram-4b3855205</t>
         </is>
       </c>
     </row>
@@ -1206,7 +1206,7 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>https://pk.linkedin.com/in/muhammad-naveed-6580b8202</t>
+          <t>https://pk.linkedin.com/in/saad-mehmood-74584414b</t>
         </is>
       </c>
     </row>
@@ -1216,7 +1216,7 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>https://pk.linkedin.com/in/usama-zaid-pak</t>
+          <t>https://pk.linkedin.com/in/luqman-rasheed-4b7455141</t>
         </is>
       </c>
     </row>
@@ -1226,7 +1226,7 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>https://pk.linkedin.com/in/faisal-javed-2a3340203</t>
+          <t>https://pk.linkedin.com/in/usamatariq70</t>
         </is>
       </c>
     </row>
@@ -1236,7 +1236,7 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>https://pk.linkedin.com/in/haseeb-shaukat73</t>
+          <t>https://pk.linkedin.com/in/syed-faiq-yazdani-26b541166</t>
         </is>
       </c>
     </row>
@@ -1246,7 +1246,7 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>https://pk.linkedin.com/in/atif-ahmed-a60a5b128</t>
+          <t>https://pk.linkedin.com/in/mudassir-ramzan-a768501bb</t>
         </is>
       </c>
     </row>
@@ -1256,7 +1256,7 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>https://pk.linkedin.com/in/ashar-rahim-09a954185</t>
+          <t>https://pk.linkedin.com/in/adnan-awan-33138826</t>
         </is>
       </c>
     </row>
@@ -1266,7 +1266,7 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>https://pk.linkedin.com/in/aon-raza-8238a31a3</t>
+          <t>https://pk.linkedin.com/in/ali-ahmad-219b78197?trk=public_profile_browsemap</t>
         </is>
       </c>
     </row>
@@ -1276,7 +1276,7 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>https://pk.linkedin.com/in/ali-ahmad-44ab921b8</t>
+          <t>https://pk.linkedin.com/in/usama-ahmed-7b9a79166?trk=people-guest_profile-result-card_result-card_full-click</t>
         </is>
       </c>
     </row>
@@ -1286,7 +1286,7 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>https://pk.linkedin.com/in/muhammad-kamran-28b565b8</t>
+          <t>https://pk.linkedin.com/in/imusmangulzar</t>
         </is>
       </c>
     </row>
@@ -1296,7 +1296,7 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>https://pk.linkedin.com/in/muhammad-rizwan-a8286920a</t>
+          <t>https://pk.linkedin.com/in/qasim-mehmood-47221a118</t>
         </is>
       </c>
     </row>
@@ -1306,7 +1306,7 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>https://pk.linkedin.com/in/m-arsalan-mudni-49417654</t>
+          <t>https://pk.linkedin.com/in/aamirshahab</t>
         </is>
       </c>
     </row>
@@ -1316,7 +1316,7 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>https://pk.linkedin.com/in/raiamir12</t>
+          <t>https://pk.linkedin.com/in/mubashiralli</t>
         </is>
       </c>
     </row>
@@ -1326,7 +1326,7 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>https://pk.linkedin.com/in/muhammad-osama-104985121</t>
+          <t>https://pk.linkedin.com/in/khawaja-dawood-6b776318a</t>
         </is>
       </c>
     </row>
@@ -1336,7 +1336,7 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>https://pk.linkedin.com/in/muhammad-rehan-3b47a3165</t>
+          <t>https://pk.linkedin.com/in/zain-ali-222333b9</t>
         </is>
       </c>
     </row>
@@ -1346,7 +1346,7 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>https://pk.linkedin.com/in/abdul-rehman-50765318b</t>
+          <t>https://pk.linkedin.com/in/rizwan-khan-18b651189?trk=public_profile_browsemap_profile-result-card_result-card_full-click</t>
         </is>
       </c>
     </row>
@@ -1356,7 +1356,7 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>https://pk.linkedin.com/in/osamaz16</t>
+          <t>https://pk.linkedin.com/in/muhammad-zeeshan-8a28421aa</t>
         </is>
       </c>
     </row>
@@ -1366,7 +1366,7 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>https://pk.linkedin.com/in/usama-ahmer-531a1a10a</t>
+          <t>https://pk.linkedin.com/in/mohsin-mehar-477b6218a</t>
         </is>
       </c>
     </row>
@@ -1376,7 +1376,7 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>https://pk.linkedin.com/in/qasim-mehmood-47221a118</t>
+          <t>https://pk.linkedin.com/in/muhammad-akhlaq-mahar-4a7b9b155</t>
         </is>
       </c>
     </row>
@@ -1386,7 +1386,7 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>https://pk.linkedin.com/in/shehryar-khan-79b73118a</t>
+          <t>https://pk.linkedin.com/in/waseemriazawan</t>
         </is>
       </c>
     </row>
@@ -1396,7 +1396,7 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>https://pk.linkedin.com/in/umair-akram-4b3855205</t>
+          <t>https://www.linkedin.com/in/najam-ali-194572128</t>
         </is>
       </c>
     </row>
@@ -1406,7 +1406,7 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>https://pk.linkedin.com/in/saad-mehmood-74584414b</t>
+          <t>https://pk.linkedin.com/in/hamzasaeed429</t>
         </is>
       </c>
     </row>
@@ -1416,7 +1416,7 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>https://pk.linkedin.com/in/ahwar</t>
+          <t>https://pk.linkedin.com/in/muhammad-zubairr</t>
         </is>
       </c>
     </row>
@@ -1426,7 +1426,7 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>https://pk.linkedin.com/in/usama-tahir-7b21a4115</t>
+          <t>https://pk.linkedin.com/in/mahad-waseem</t>
         </is>
       </c>
     </row>
@@ -1436,7 +1436,7 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>https://pk.linkedin.com/in/ali-tahir1010</t>
+          <t>https://pk.linkedin.com/in/abdullahnaveed345</t>
         </is>
       </c>
     </row>
@@ -1446,7 +1446,7 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>https://pk.linkedin.com/in/luqman-rasheed-4b7455141</t>
+          <t>https://pk.linkedin.com/in/wasi-haider-78412b165</t>
         </is>
       </c>
     </row>
@@ -1456,7 +1456,7 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>https://pk.linkedin.com/in/usamatariq70</t>
+          <t>https://pk.linkedin.com/in/muhammad-aleem-1b1aa8121</t>
         </is>
       </c>
     </row>
@@ -1466,7 +1466,7 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>https://pk.linkedin.com/in/syed-faiq-yazdani-26b541166</t>
+          <t>https://pk.linkedin.com/in/habiburrehman0</t>
         </is>
       </c>
     </row>
@@ -1476,7 +1476,667 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>https://pk.linkedin.com/in/adnan-awan-33138826</t>
+          <t>https://pk.linkedin.com/in/yasirali179</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="1" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>https://pk.linkedin.com/in/junaid-tariq-96344610a</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="1" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>https://pk.linkedin.com/in/bilal-ahmad-304468117?trk=public_profile_browsemap</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="1" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>https://pk.linkedin.com/in/usamanadeem0786</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="1" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>https://pk.linkedin.com/in/malik-nomi-7ba555116</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="1" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>https://pk.linkedin.com/in/asim-shahzad-aab0b5178</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="1" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>https://pk.linkedin.com/in/shahidwahla</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="1" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>https://pk.linkedin.com/in/mr-no-man-9b67741b6</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="1" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>https://pk.linkedin.com/in/ali-khan-b481111a0?trk=public_profile_browsemap_profile-result-card_result-card_full-click</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="1" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>https://pk.linkedin.com/in/muhammad-umair-mushtaq-ahmad-99856215b</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="1" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>https://pk.linkedin.com/in/comsian-coder-04a4821b8</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="1" t="n">
+        <v>114</v>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>https://pk.linkedin.com/in/ali-hamza-712b08155</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="1" t="n">
+        <v>115</v>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>https://pk.linkedin.com/in/hafiz-umair-1830941b5</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="1" t="n">
+        <v>116</v>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>https://pk.linkedin.com/in/ali-hassan-1188aa167</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="1" t="n">
+        <v>117</v>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>https://pk.linkedin.com/in/ali-asghar-6827621a4</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="1" t="n">
+        <v>118</v>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>https://pk.linkedin.com/in/airas-burhan</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="1" t="n">
+        <v>119</v>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>https://pk.linkedin.com/in/jai-kishan-ai</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="1" t="n">
+        <v>120</v>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>https://pk.linkedin.com/in/munir172</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="1" t="n">
+        <v>121</v>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>https://pk.linkedin.com/in/alina-aynain-22a394170?trk=people-guest_people_search-card</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="1" t="n">
+        <v>122</v>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>https://pk.linkedin.com/in/fahad-ashraf-418989210</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="1" t="n">
+        <v>123</v>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>https://pk.linkedin.com/in/muhammad-baqir-15614b145</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="1" t="n">
+        <v>124</v>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>https://pk.linkedin.com/in/muhammad-abrar-32b33216a</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="1" t="n">
+        <v>125</v>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>https://pk.linkedin.com/in/muhammad-umer-195987158</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="1" t="n">
+        <v>126</v>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>https://pk.linkedin.com/in/muhammad-abdullah-408134202</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="1" t="n">
+        <v>127</v>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>https://pk.linkedin.com/in/muhammad-tanveer-sultan-bb3a90166</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="1" t="n">
+        <v>128</v>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>https://pk.linkedin.com/in/nayab-imtiaz-589a30111</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="1" t="n">
+        <v>129</v>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>https://pk.linkedin.com/in/malik-waqas-akbar-a9a67680</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="1" t="n">
+        <v>130</v>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>https://pk.linkedin.com/in/umer-saeed-9034521b4</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="1" t="n">
+        <v>131</v>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>https://pk.linkedin.com/in/abdullah-rao-924152201</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="1" t="n">
+        <v>132</v>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>https://pk.linkedin.com/in/ahmad-ali-3932a21a3</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="1" t="n">
+        <v>133</v>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>https://pk.linkedin.com/in/mudassir-ali-zaidi-486a96120</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="1" t="n">
+        <v>134</v>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>https://pk.linkedin.com/in/ammara-khalid-4ba14a136</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="1" t="n">
+        <v>135</v>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>https://pk.linkedin.com/in/yasir-rauf-62997b130</t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="1" t="n">
+        <v>136</v>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>https://pk.linkedin.com/in/syedyousafshah?trk=public_profile_samename-profile</t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="1" t="n">
+        <v>137</v>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>https://pk.linkedin.com/in/salman-saleem-29205a17a</t>
+        </is>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="1" t="n">
+        <v>138</v>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>https://pk.linkedin.com/in/babarlhr</t>
+        </is>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="1" t="n">
+        <v>139</v>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>https://pk.linkedin.com/in/mujeebishaque</t>
+        </is>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="1" t="n">
+        <v>140</v>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>https://pk.linkedin.com/in/hafiza-nafeesa-asif-0a7068199</t>
+        </is>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="1" t="n">
+        <v>141</v>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>https://pk.linkedin.com/in/batool-fatima-b3b737209</t>
+        </is>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="1" t="n">
+        <v>142</v>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>https://pk.linkedin.com/in/ghayoorulhaq</t>
+        </is>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="1" t="n">
+        <v>143</v>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>https://pk.linkedin.com/in/amir-sohail-ab8b611b3</t>
+        </is>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="1" t="n">
+        <v>144</v>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>https://pk.linkedin.com/in/theumaraziz</t>
+        </is>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="1" t="n">
+        <v>145</v>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>https://pk.linkedin.com/in/test1-account-682222205</t>
+        </is>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="1" t="n">
+        <v>146</v>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>https://pk.linkedin.com/in/awais-gill</t>
+        </is>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="1" t="n">
+        <v>147</v>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>https://pk.linkedin.com/in/hamza-gul-31178454</t>
+        </is>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="1" t="n">
+        <v>148</v>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>https://pk.linkedin.com/in/tallal-ali-44579b131</t>
+        </is>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="1" t="n">
+        <v>149</v>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>https://pk.linkedin.com/in/umair-khadim-349439129</t>
+        </is>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="1" t="n">
+        <v>150</v>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>https://pk.linkedin.com/in/hassan-khan-863597208</t>
+        </is>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="1" t="n">
+        <v>151</v>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>https://pk.linkedin.com/in/muhammad-usama-522760130</t>
+        </is>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="1" t="n">
+        <v>152</v>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>https://pk.linkedin.com/in/wardah-arshad-b0347b216</t>
+        </is>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="1" t="n">
+        <v>153</v>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>https://pk.linkedin.com/in/arslan-asghar-6aa599148</t>
+        </is>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="1" t="n">
+        <v>154</v>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>https://pk.linkedin.com/in/umar-qayyum</t>
+        </is>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="1" t="n">
+        <v>155</v>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>https://pk.linkedin.com/in/muhammad-haroon-411b4460</t>
+        </is>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="1" t="n">
+        <v>156</v>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>https://pk.linkedin.com/in/muhammad-adeel-afzal</t>
+        </is>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" s="1" t="n">
+        <v>157</v>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>https://pk.linkedin.com/in/nouman-mustafa-a2a82941</t>
+        </is>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" s="1" t="n">
+        <v>158</v>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>https://pk.linkedin.com/in/muhammad-afzaal07?trk=public_profile_browsemap</t>
+        </is>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" s="1" t="n">
+        <v>159</v>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>https://pk.linkedin.com/in/airej-anwar-876823167</t>
+        </is>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" s="1" t="n">
+        <v>160</v>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>https://pk.linkedin.com/in/aali-zain</t>
+        </is>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" s="1" t="n">
+        <v>161</v>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>https://pk.linkedin.com/in/asad-ali-21197a177</t>
+        </is>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" s="1" t="n">
+        <v>162</v>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>https://pk.linkedin.com/in/ahsan-ali-164a821a2</t>
+        </is>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" s="1" t="n">
+        <v>163</v>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>https://pk.linkedin.com/in/tariqfarooq95</t>
+        </is>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" s="1" t="n">
+        <v>164</v>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>https://pk.linkedin.com/in/shumaila-nazir-800619221</t>
+        </is>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" s="1" t="n">
+        <v>165</v>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>https://pk.linkedin.com/in/hassan-raza-b2a9671ab</t>
+        </is>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" s="1" t="n">
+        <v>166</v>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>https://pk.linkedin.com/in/asim-malik-168014a0</t>
+        </is>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" s="1" t="n">
+        <v>167</v>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>https://pk.linkedin.com/in/adnan-chaudhary-99455110b</t>
+        </is>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" s="1" t="n">
+        <v>168</v>
+      </c>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>https://pk.linkedin.com/in/touqeer-abbas</t>
+        </is>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" s="1" t="n">
+        <v>169</v>
+      </c>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>https://pk.linkedin.com/in/abdul-wahab-aa15341a3</t>
         </is>
       </c>
     </row>

--- a/Linkdin_profiles/Lahore_Python_Developers.xlsx
+++ b/Linkdin_profiles/Lahore_Python_Developers.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B171"/>
+  <dimension ref="A1:B161"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -446,7 +446,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>https://pk.linkedin.com/in/rizwan-amin-979b38130</t>
+          <t>https://pk.linkedin.com/in/hafiz-farhan-nawaz-a41677145?trk=public_profile_browsemap_profile-result-card_result-card_full-click</t>
         </is>
       </c>
     </row>
@@ -456,7 +456,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>https://pk.linkedin.com/in/arslanali4343/en</t>
+          <t>https://pk.linkedin.com/in/ali-raza-6673011ba</t>
         </is>
       </c>
     </row>
@@ -466,7 +466,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>https://pk.linkedin.com/in/connectaliraza</t>
+          <t>https://pk.linkedin.com/in/ghulam-nabi-989001186?trk=public_profile_browsemap</t>
         </is>
       </c>
     </row>
@@ -476,7 +476,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>https://pk.linkedin.com/in/maqsood-malik-19b3b71b3?trk=public_profile_browsemap</t>
+          <t>https://pk.linkedin.com/in/asad-raza-20b843122</t>
         </is>
       </c>
     </row>
@@ -486,7 +486,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>https://pk.linkedin.com/in/nabgha-iftikhar-08b1641a7</t>
+          <t>https://pk.linkedin.com/in/noman-nawaz-027819211</t>
         </is>
       </c>
     </row>
@@ -496,7 +496,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>https://pk.linkedin.com/in/mianmujeeb?trk=public_profile_browsemap</t>
+          <t>https://pk.linkedin.com/in/salmantahir786</t>
         </is>
       </c>
     </row>
@@ -506,7 +506,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>https://pk.linkedin.com/in/maaqib121</t>
+          <t>https://pk.linkedin.com/in/arslanali4343/en</t>
         </is>
       </c>
     </row>
@@ -516,7 +516,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>https://pk.linkedin.com/in/malik-umer-farooq-b73a531ba</t>
+          <t>https://pk.linkedin.com/in/muhammad-shahid-979961130</t>
         </is>
       </c>
     </row>
@@ -526,7 +526,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>https://pk.linkedin.com/in/saif-ullah-ab07b753</t>
+          <t>https://pk.linkedin.com/in/yasir-hameed-370959a1</t>
         </is>
       </c>
     </row>
@@ -536,7 +536,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>https://pk.linkedin.com/in/ameer-hamza-butt-597458194</t>
+          <t>https://pk.linkedin.com/in/rizwan-amin-979b38130</t>
         </is>
       </c>
     </row>
@@ -546,7 +546,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>https://pk.linkedin.com/in/hannan-haider-farooq-508218192</t>
+          <t>https://pk.linkedin.com/in/mianmujeeb?trk=public_profile_browsemap</t>
         </is>
       </c>
     </row>
@@ -556,7 +556,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>https://pk.linkedin.com/in/hareem-bilal-1853a718b</t>
+          <t>https://pk.linkedin.com/in/amna-khalid-74a152171</t>
         </is>
       </c>
     </row>
@@ -566,7 +566,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>https://pk.linkedin.com/in/saleet-ul-hassan-0935b8167</t>
+          <t>https://pk.linkedin.com/in/saif-ullah-ab07b753</t>
         </is>
       </c>
     </row>
@@ -576,7 +576,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>https://pk.linkedin.com/in/umair-cheema-b6660583</t>
+          <t>https://pk.linkedin.com/in/nabgha-iftikhar-08b1641a7</t>
         </is>
       </c>
     </row>
@@ -586,7 +586,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>https://pk.linkedin.com/in/engineerarbaaz</t>
+          <t>https://pk.linkedin.com/in/waseem-mehr</t>
         </is>
       </c>
     </row>
@@ -596,7 +596,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>https://pk.linkedin.com/in/shahzaib-akash-430014115</t>
+          <t>https://pk.linkedin.com/in/hannan-haider-farooq-508218192</t>
         </is>
       </c>
     </row>
@@ -606,7 +606,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>https://pk.linkedin.com/in/muhammad-qasim-python-dev</t>
+          <t>https://pk.linkedin.com/in/hareem-bilal-1853a718b</t>
         </is>
       </c>
     </row>
@@ -616,7 +616,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>https://pk.linkedin.com/in/tajwarbilal</t>
+          <t>https://pk.linkedin.com/in/maqsood-malik-19b3b71b3?trk=public_profile_browsemap</t>
         </is>
       </c>
     </row>
@@ -626,7 +626,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>https://pk.linkedin.com/in/waheed-amir</t>
+          <t>https://pk.linkedin.com/in/saleet-ul-hassan-0935b8167</t>
         </is>
       </c>
     </row>
@@ -636,7 +636,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>https://pk.linkedin.com/in/habib-ali-7a9b03135</t>
+          <t>https://pk.linkedin.com/in/connectaliraza</t>
         </is>
       </c>
     </row>
@@ -646,7 +646,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>https://pk.linkedin.com/in/attiq-ur-rehman-4ba7b4a6</t>
+          <t>https://pk.linkedin.com/in/malik-umer-farooq-b73a531ba</t>
         </is>
       </c>
     </row>
@@ -656,7 +656,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>https://pk.linkedin.com/in/noor-ul-ain-7908b9155</t>
+          <t>https://pk.linkedin.com/in/ameer-hamza-butt-597458194</t>
         </is>
       </c>
     </row>
@@ -666,7 +666,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>https://pk.linkedin.com/in/ammar-zahoor-5356b7194</t>
+          <t>https://pk.linkedin.com/in/shahzaib-akash-430014115</t>
         </is>
       </c>
     </row>
@@ -676,7 +676,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>https://pk.linkedin.com/in/mumarsohail</t>
+          <t>https://pk.linkedin.com/in/umair-cheema-b6660583</t>
         </is>
       </c>
     </row>
@@ -686,7 +686,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>https://pk.linkedin.com/in/muhammad-haris-yousaf-949858142</t>
+          <t>https://pk.linkedin.com/in/engineerarbaaz</t>
         </is>
       </c>
     </row>
@@ -696,7 +696,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>https://pk.linkedin.com/in/abdul-mannan-7441a5204</t>
+          <t>https://pk.linkedin.com/in/muhammad-qasim-python-dev</t>
         </is>
       </c>
     </row>
@@ -706,7 +706,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>https://pk.linkedin.com/in/salman-bhatti-78429a1a3</t>
+          <t>https://pk.linkedin.com/in/tajwarbilal</t>
         </is>
       </c>
     </row>
@@ -716,7 +716,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>https://pk.linkedin.com/in/hafizabrarshah</t>
+          <t>https://pk.linkedin.com/in/waheed-amir</t>
         </is>
       </c>
     </row>
@@ -726,7 +726,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>https://pk.linkedin.com/in/syed-kashif-8b48a015b</t>
+          <t>https://pk.linkedin.com/in/habib-ali-7a9b03135</t>
         </is>
       </c>
     </row>
@@ -736,7 +736,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>https://pk.linkedin.com/in/alizaibofficial</t>
+          <t>https://pk.linkedin.com/in/attiq-ur-rehman-4ba7b4a6</t>
         </is>
       </c>
     </row>
@@ -746,7 +746,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>https://pk.linkedin.com/in/arbaz-khalid</t>
+          <t>https://pk.linkedin.com/in/ammar-zahoor-5356b7194</t>
         </is>
       </c>
     </row>
@@ -756,7 +756,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>https://pk.linkedin.com/in/rizwan-ibrahim-6141161a1</t>
+          <t>https://pk.linkedin.com/in/noor-ul-ain-7908b9155</t>
         </is>
       </c>
     </row>
@@ -766,7 +766,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>https://pk.linkedin.com/in/asad-ali-b58863149</t>
+          <t>https://pk.linkedin.com/in/mumarsohail</t>
         </is>
       </c>
     </row>
@@ -776,7 +776,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>https://pk.linkedin.com/in/imumar</t>
+          <t>https://pk.linkedin.com/in/abdul-mannan-7441a5204</t>
         </is>
       </c>
     </row>
@@ -786,7 +786,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>https://pk.linkedin.com/in/meharusama</t>
+          <t>https://pk.linkedin.com/in/syed-kashif-8b48a015b</t>
         </is>
       </c>
     </row>
@@ -796,7 +796,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>https://pk.linkedin.com/in/moosa-raza-251041189</t>
+          <t>https://pk.linkedin.com/in/salman-bhatti-78429a1a3</t>
         </is>
       </c>
     </row>
@@ -806,7 +806,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>https://pk.linkedin.com/in/muhammad-osama-104985121</t>
+          <t>https://pk.linkedin.com/in/hafizabrarshah</t>
         </is>
       </c>
     </row>
@@ -816,7 +816,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>https://pk.linkedin.com/in/muzamil-anwer-19b0901a6?trk=public_profile_browsemap</t>
+          <t>https://pk.linkedin.com/in/alizaibofficial</t>
         </is>
       </c>
     </row>
@@ -826,7 +826,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>https://pk.linkedin.com/in/muhammad-junaid-2967a0157</t>
+          <t>https://pk.linkedin.com/in/arbaz-khalid</t>
         </is>
       </c>
     </row>
@@ -836,7 +836,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>https://pk.linkedin.com/in/aafaq-tahir-a5255720b</t>
+          <t>https://pk.linkedin.com/in/muhammad-haris-yousaf-949858142</t>
         </is>
       </c>
     </row>
@@ -846,7 +846,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>https://pk.linkedin.com/in/muhammad-osama-104985121</t>
+          <t>https://pk.linkedin.com/in/rizwan-ibrahim-6141161a1</t>
         </is>
       </c>
     </row>
@@ -856,7 +856,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>https://pk.linkedin.com/in/atif-raza-097507194</t>
+          <t>https://pk.linkedin.com/in/asad-ali-b58863149</t>
         </is>
       </c>
     </row>
@@ -866,7 +866,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>https://pk.linkedin.com/in/muhammad-arshad-khalil-6097b5196</t>
+          <t>https://pk.linkedin.com/in/imumar</t>
         </is>
       </c>
     </row>
@@ -876,7 +876,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>https://pk.linkedin.com/in/muhammad-zeeshan-tariq-68525b144</t>
+          <t>https://pk.linkedin.com/in/moosa-raza-251041189</t>
         </is>
       </c>
     </row>
@@ -886,7 +886,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>https://pk.linkedin.com/in/arslan-ahmad-b45b38147</t>
+          <t>https://pk.linkedin.com/in/meharusama</t>
         </is>
       </c>
     </row>
@@ -896,7 +896,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>https://pk.linkedin.com/in/muhammad-anees-liaqat-ab4b50137</t>
+          <t>https://pk.linkedin.com/in/muzamil-anwer-19b0901a6?trk=public_profile_browsemap</t>
         </is>
       </c>
     </row>
@@ -906,7 +906,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>https://pk.linkedin.com/in/zaheer-ud-din-a5252a70</t>
+          <t>https://pk.linkedin.com/in/muhammad-junaid-2967a0157</t>
         </is>
       </c>
     </row>
@@ -916,7 +916,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>https://pk.linkedin.com/in/muhammadahsanpakistan</t>
+          <t>https://pk.linkedin.com/in/aafaq-tahir-a5255720b</t>
         </is>
       </c>
     </row>
@@ -926,7 +926,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>https://pk.linkedin.com/in/rizwanarshad9193</t>
+          <t>https://pk.linkedin.com/in/atif-raza-097507194</t>
         </is>
       </c>
     </row>
@@ -936,7 +936,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>https://pk.linkedin.com/in/aqibmehmood-software</t>
+          <t>https://pk.linkedin.com/in/muhammad-arshad-khalil-6097b5196</t>
         </is>
       </c>
     </row>
@@ -946,7 +946,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>https://pk.linkedin.com/in/mudassar-kamal-321367121</t>
+          <t>https://pk.linkedin.com/in/muhammad-zeeshan-tariq-68525b144</t>
         </is>
       </c>
     </row>
@@ -956,7 +956,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>https://pk.linkedin.com/in/mgcoder</t>
+          <t>https://pk.linkedin.com/in/arslan-ahmad-b45b38147</t>
         </is>
       </c>
     </row>
@@ -966,7 +966,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>https://pk.linkedin.com/in/shehram-tahir-98aba2144</t>
+          <t>https://pk.linkedin.com/in/muhammad-anees-liaqat-ab4b50137</t>
         </is>
       </c>
     </row>
@@ -976,7 +976,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>https://pk.linkedin.com/in/ahmedjaved701</t>
+          <t>https://pk.linkedin.com/in/zaheer-ud-din-a5252a70</t>
         </is>
       </c>
     </row>
@@ -986,7 +986,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>https://pk.linkedin.com/in/faisal-javed-2a3340203</t>
+          <t>https://pk.linkedin.com/in/rizwanarshad9193</t>
         </is>
       </c>
     </row>
@@ -996,7 +996,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>https://pk.linkedin.com/in/haseeb-shaukat73</t>
+          <t>https://pk.linkedin.com/in/aqibmehmood-software</t>
         </is>
       </c>
     </row>
@@ -1006,7 +1006,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>https://pk.linkedin.com/in/muhammad-asif-saleem-sidhu</t>
+          <t>https://pk.linkedin.com/in/mudassar-kamal-321367121</t>
         </is>
       </c>
     </row>
@@ -1016,7 +1016,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>https://pk.linkedin.com/in/ashar-rahim-09a954185</t>
+          <t>https://pk.linkedin.com/in/mgcoder</t>
         </is>
       </c>
     </row>
@@ -1026,7 +1026,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>https://pk.linkedin.com/in/ali-ahmad-44ab921b8</t>
+          <t>https://pk.linkedin.com/in/shehram-tahir-98aba2144</t>
         </is>
       </c>
     </row>
@@ -1036,7 +1036,7 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>https://pk.linkedin.com/in/muhammad-naveed-6580b8202</t>
+          <t>https://pk.linkedin.com/in/ahmedjaved701</t>
         </is>
       </c>
     </row>
@@ -1046,7 +1046,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>https://pk.linkedin.com/in/muhammad-yasin-7167281b3</t>
+          <t>https://pk.linkedin.com/in/haseeb-shaukat73</t>
         </is>
       </c>
     </row>
@@ -1056,7 +1056,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>https://pk.linkedin.com/in/usama-zaid-pak</t>
+          <t>https://pk.linkedin.com/in/muhammad-asif-saleem-sidhu</t>
         </is>
       </c>
     </row>
@@ -1066,7 +1066,7 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>https://pk.linkedin.com/in/aon-raza-8238a31a3</t>
+          <t>https://pk.linkedin.com/in/ashar-rahim-09a954185</t>
         </is>
       </c>
     </row>
@@ -1076,7 +1076,7 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>https://pk.linkedin.com/in/muhammad-kamran-28b565b8</t>
+          <t>https://pk.linkedin.com/in/ali-ahmad-44ab921b8</t>
         </is>
       </c>
     </row>
@@ -1086,7 +1086,7 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>https://pk.linkedin.com/in/atif-ahmed-a60a5b128</t>
+          <t>https://pk.linkedin.com/in/muhammad-naveed-6580b8202</t>
         </is>
       </c>
     </row>
@@ -1096,7 +1096,7 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>https://pk.linkedin.com/in/m-arsalan-mudni-49417654</t>
+          <t>https://pk.linkedin.com/in/muhammad-yasin-7167281b3</t>
         </is>
       </c>
     </row>
@@ -1106,7 +1106,7 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>https://pk.linkedin.com/in/raiamir12</t>
+          <t>https://pk.linkedin.com/in/muhammad-kamran-28b565b8</t>
         </is>
       </c>
     </row>
@@ -1116,7 +1116,7 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>https://pk.linkedin.com/in/muhammad-rizwan-a8286920a</t>
+          <t>https://pk.linkedin.com/in/atif-ahmed-a60a5b128</t>
         </is>
       </c>
     </row>
@@ -1126,7 +1126,7 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>https://pk.linkedin.com/in/noman-ali-a7331718a</t>
+          <t>https://pk.linkedin.com/in/aon-raza-8238a31a3</t>
         </is>
       </c>
     </row>
@@ -1136,7 +1136,7 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>https://pk.linkedin.com/in/osamaz16</t>
+          <t>https://pk.linkedin.com/in/m-arsalan-mudni-49417654</t>
         </is>
       </c>
     </row>
@@ -1146,7 +1146,7 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>https://pk.linkedin.com/in/usama-ahmer-531a1a10a</t>
+          <t>https://pk.linkedin.com/in/muhammad-osama-104985121</t>
         </is>
       </c>
     </row>
@@ -1156,7 +1156,7 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>https://pk.linkedin.com/in/abdul-rehman-50765318b</t>
+          <t>https://pk.linkedin.com/in/raiamir12</t>
         </is>
       </c>
     </row>
@@ -1166,7 +1166,7 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>https://pk.linkedin.com/in/ahwar</t>
+          <t>https://pk.linkedin.com/in/qasim-mehmood-47221a118</t>
         </is>
       </c>
     </row>
@@ -1176,7 +1176,7 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>https://pk.linkedin.com/in/muhammad-rehan-3b47a3165</t>
+          <t>https://pk.linkedin.com/in/muhammad-rizwan-a8286920a</t>
         </is>
       </c>
     </row>
@@ -1186,7 +1186,7 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>https://pk.linkedin.com/in/ali-tahir1010</t>
+          <t>https://pk.linkedin.com/in/noman-ali-a7331718a</t>
         </is>
       </c>
     </row>
@@ -1196,7 +1196,7 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>https://pk.linkedin.com/in/umair-akram-4b3855205</t>
+          <t>https://pk.linkedin.com/in/osamaz16</t>
         </is>
       </c>
     </row>
@@ -1206,7 +1206,7 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>https://pk.linkedin.com/in/saad-mehmood-74584414b</t>
+          <t>https://pk.linkedin.com/in/usama-ahmer-531a1a10a</t>
         </is>
       </c>
     </row>
@@ -1216,7 +1216,7 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>https://pk.linkedin.com/in/luqman-rasheed-4b7455141</t>
+          <t>https://pk.linkedin.com/in/abdul-rehman-50765318b</t>
         </is>
       </c>
     </row>
@@ -1226,7 +1226,7 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>https://pk.linkedin.com/in/usamatariq70</t>
+          <t>https://pk.linkedin.com/in/ahwar</t>
         </is>
       </c>
     </row>
@@ -1236,7 +1236,7 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>https://pk.linkedin.com/in/syed-faiq-yazdani-26b541166</t>
+          <t>https://pk.linkedin.com/in/muhammad-rehan-3b47a3165</t>
         </is>
       </c>
     </row>
@@ -1246,7 +1246,7 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>https://pk.linkedin.com/in/mudassir-ramzan-a768501bb</t>
+          <t>https://pk.linkedin.com/in/nouman-mustafa-a2a82941</t>
         </is>
       </c>
     </row>
@@ -1256,7 +1256,7 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>https://pk.linkedin.com/in/adnan-awan-33138826</t>
+          <t>https://pk.linkedin.com/in/ali-tahir1010</t>
         </is>
       </c>
     </row>
@@ -1266,7 +1266,7 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>https://pk.linkedin.com/in/ali-ahmad-219b78197?trk=public_profile_browsemap</t>
+          <t>https://pk.linkedin.com/in/umair-akram-4b3855205</t>
         </is>
       </c>
     </row>
@@ -1276,7 +1276,7 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>https://pk.linkedin.com/in/usama-ahmed-7b9a79166?trk=people-guest_profile-result-card_result-card_full-click</t>
+          <t>https://pk.linkedin.com/in/saad-mehmood-74584414b</t>
         </is>
       </c>
     </row>
@@ -1286,7 +1286,7 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>https://pk.linkedin.com/in/imusmangulzar</t>
+          <t>https://pk.linkedin.com/in/luqman-rasheed-4b7455141</t>
         </is>
       </c>
     </row>
@@ -1296,7 +1296,7 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>https://pk.linkedin.com/in/qasim-mehmood-47221a118</t>
+          <t>https://pk.linkedin.com/in/usamatariq70</t>
         </is>
       </c>
     </row>
@@ -1306,7 +1306,7 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>https://pk.linkedin.com/in/aamirshahab</t>
+          <t>https://pk.linkedin.com/in/syed-faiq-yazdani-26b541166</t>
         </is>
       </c>
     </row>
@@ -1316,7 +1316,7 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>https://pk.linkedin.com/in/mubashiralli</t>
+          <t>https://pk.linkedin.com/in/mudassir-ramzan-a768501bb</t>
         </is>
       </c>
     </row>
@@ -1326,7 +1326,7 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>https://pk.linkedin.com/in/khawaja-dawood-6b776318a</t>
+          <t>https://pk.linkedin.com/in/adnan-awan-33138826</t>
         </is>
       </c>
     </row>
@@ -1336,7 +1336,7 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>https://pk.linkedin.com/in/zain-ali-222333b9</t>
+          <t>https://pk.linkedin.com/in/ali-ahmad-219b78197?trk=public_profile_browsemap</t>
         </is>
       </c>
     </row>
@@ -1346,7 +1346,7 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>https://pk.linkedin.com/in/rizwan-khan-18b651189?trk=public_profile_browsemap_profile-result-card_result-card_full-click</t>
+          <t>https://pk.linkedin.com/in/usama-ahmed-7b9a79166?trk=people-guest_profile-result-card_result-card_full-click</t>
         </is>
       </c>
     </row>
@@ -1356,7 +1356,7 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>https://pk.linkedin.com/in/muhammad-zeeshan-8a28421aa</t>
+          <t>https://pk.linkedin.com/in/imusmangulzar</t>
         </is>
       </c>
     </row>
@@ -1366,7 +1366,7 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>https://pk.linkedin.com/in/mohsin-mehar-477b6218a</t>
+          <t>https://pk.linkedin.com/in/usama-tahir-7b21a4115</t>
         </is>
       </c>
     </row>
@@ -1376,7 +1376,7 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>https://pk.linkedin.com/in/muhammad-akhlaq-mahar-4a7b9b155</t>
+          <t>https://pk.linkedin.com/in/aamirshahab</t>
         </is>
       </c>
     </row>
@@ -1386,7 +1386,7 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>https://pk.linkedin.com/in/waseemriazawan</t>
+          <t>https://pk.linkedin.com/in/rizwan-khan-18b651189?trk=public_profile_browsemap_profile-result-card_result-card_full-click</t>
         </is>
       </c>
     </row>
@@ -1396,7 +1396,7 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/in/najam-ali-194572128</t>
+          <t>https://pk.linkedin.com/in/mubashiralli</t>
         </is>
       </c>
     </row>
@@ -1406,7 +1406,7 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>https://pk.linkedin.com/in/hamzasaeed429</t>
+          <t>https://pk.linkedin.com/in/zain-ali-222333b9</t>
         </is>
       </c>
     </row>
@@ -1426,7 +1426,7 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>https://pk.linkedin.com/in/mahad-waseem</t>
+          <t>https://pk.linkedin.com/in/muhammad-zeeshan-8a28421aa</t>
         </is>
       </c>
     </row>
@@ -1436,7 +1436,7 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>https://pk.linkedin.com/in/abdullahnaveed345</t>
+          <t>https://pk.linkedin.com/in/mohsin-mehar-477b6218a</t>
         </is>
       </c>
     </row>
@@ -1446,7 +1446,7 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>https://pk.linkedin.com/in/wasi-haider-78412b165</t>
+          <t>https://pk.linkedin.com/in/muhammad-akhlaq-mahar-4a7b9b155</t>
         </is>
       </c>
     </row>
@@ -1456,7 +1456,7 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>https://pk.linkedin.com/in/muhammad-aleem-1b1aa8121</t>
+          <t>https://pk.linkedin.com/in/waseemriazawan</t>
         </is>
       </c>
     </row>
@@ -1466,7 +1466,7 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>https://pk.linkedin.com/in/habiburrehman0</t>
+          <t>https://www.linkedin.com/in/najam-ali-194572128</t>
         </is>
       </c>
     </row>
@@ -1476,7 +1476,7 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>https://pk.linkedin.com/in/yasirali179</t>
+          <t>https://pk.linkedin.com/in/hamzasaeed429</t>
         </is>
       </c>
     </row>
@@ -1486,7 +1486,7 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>https://pk.linkedin.com/in/junaid-tariq-96344610a</t>
+          <t>https://pk.linkedin.com/in/wasi-haider-78412b165</t>
         </is>
       </c>
     </row>
@@ -1496,7 +1496,7 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>https://pk.linkedin.com/in/bilal-ahmad-304468117?trk=public_profile_browsemap</t>
+          <t>https://pk.linkedin.com/in/muhammad-aleem-1b1aa8121</t>
         </is>
       </c>
     </row>
@@ -1506,7 +1506,7 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>https://pk.linkedin.com/in/usamanadeem0786</t>
+          <t>https://pk.linkedin.com/in/yasirali179</t>
         </is>
       </c>
     </row>
@@ -1516,7 +1516,7 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>https://pk.linkedin.com/in/malik-nomi-7ba555116</t>
+          <t>https://pk.linkedin.com/in/usamanadeem0786</t>
         </is>
       </c>
     </row>
@@ -1526,7 +1526,7 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>https://pk.linkedin.com/in/asim-shahzad-aab0b5178</t>
+          <t>https://pk.linkedin.com/in/malik-nomi-7ba555116</t>
         </is>
       </c>
     </row>
@@ -1536,7 +1536,7 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>https://pk.linkedin.com/in/shahidwahla</t>
+          <t>https://pk.linkedin.com/in/bilal-ahmad-304468117?trk=public_profile_browsemap</t>
         </is>
       </c>
     </row>
@@ -1546,7 +1546,7 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>https://pk.linkedin.com/in/mr-no-man-9b67741b6</t>
+          <t>https://pk.linkedin.com/in/asim-shahzad-aab0b5178</t>
         </is>
       </c>
     </row>
@@ -1556,7 +1556,7 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>https://pk.linkedin.com/in/ali-khan-b481111a0?trk=public_profile_browsemap_profile-result-card_result-card_full-click</t>
+          <t>https://pk.linkedin.com/in/shahidwahla</t>
         </is>
       </c>
     </row>
@@ -1566,7 +1566,7 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>https://pk.linkedin.com/in/muhammad-umair-mushtaq-ahmad-99856215b</t>
+          <t>https://pk.linkedin.com/in/junaid-tariq-96344610a</t>
         </is>
       </c>
     </row>
@@ -1576,7 +1576,7 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>https://pk.linkedin.com/in/comsian-coder-04a4821b8</t>
+          <t>https://pk.linkedin.com/in/mr-no-man-9b67741b6</t>
         </is>
       </c>
     </row>
@@ -1586,7 +1586,7 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>https://pk.linkedin.com/in/ali-hamza-712b08155</t>
+          <t>https://pk.linkedin.com/in/ali-khan-b481111a0?trk=public_profile_browsemap_profile-result-card_result-card_full-click</t>
         </is>
       </c>
     </row>
@@ -1596,7 +1596,7 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>https://pk.linkedin.com/in/hafiz-umair-1830941b5</t>
+          <t>https://pk.linkedin.com/in/muhammad-umair-mushtaq-ahmad-99856215b</t>
         </is>
       </c>
     </row>
@@ -1606,7 +1606,7 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>https://pk.linkedin.com/in/ali-hassan-1188aa167</t>
+          <t>https://pk.linkedin.com/in/ali-hamza-712b08155</t>
         </is>
       </c>
     </row>
@@ -1616,7 +1616,7 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>https://pk.linkedin.com/in/ali-asghar-6827621a4</t>
+          <t>https://pk.linkedin.com/in/comsian-coder-04a4821b8</t>
         </is>
       </c>
     </row>
@@ -1626,7 +1626,7 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>https://pk.linkedin.com/in/airas-burhan</t>
+          <t>https://pk.linkedin.com/in/muhammad-umer-299164178</t>
         </is>
       </c>
     </row>
@@ -1636,7 +1636,7 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>https://pk.linkedin.com/in/jai-kishan-ai</t>
+          <t>https://pk.linkedin.com/in/hafiz-umair-1830941b5</t>
         </is>
       </c>
     </row>
@@ -1646,7 +1646,7 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>https://pk.linkedin.com/in/munir172</t>
+          <t>https://pk.linkedin.com/in/ali-hassan-1188aa167</t>
         </is>
       </c>
     </row>
@@ -1656,7 +1656,7 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>https://pk.linkedin.com/in/alina-aynain-22a394170?trk=people-guest_people_search-card</t>
+          <t>https://pk.linkedin.com/in/ali-asghar-6827621a4</t>
         </is>
       </c>
     </row>
@@ -1666,7 +1666,7 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>https://pk.linkedin.com/in/fahad-ashraf-418989210</t>
+          <t>https://pk.linkedin.com/in/airas-burhan</t>
         </is>
       </c>
     </row>
@@ -1676,7 +1676,7 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>https://pk.linkedin.com/in/muhammad-baqir-15614b145</t>
+          <t>https://pk.linkedin.com/in/munir172</t>
         </is>
       </c>
     </row>
@@ -1686,7 +1686,7 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>https://pk.linkedin.com/in/muhammad-abrar-32b33216a</t>
+          <t>https://pk.linkedin.com/in/fahad-ashraf-418989210</t>
         </is>
       </c>
     </row>
@@ -1696,7 +1696,7 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>https://pk.linkedin.com/in/muhammad-umer-195987158</t>
+          <t>https://pk.linkedin.com/in/abdullahnaveed345</t>
         </is>
       </c>
     </row>
@@ -1706,7 +1706,7 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>https://pk.linkedin.com/in/muhammad-abdullah-408134202</t>
+          <t>https://pk.linkedin.com/in/m-huzaifa-khalid-18b093204</t>
         </is>
       </c>
     </row>
@@ -1716,7 +1716,7 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>https://pk.linkedin.com/in/muhammad-tanveer-sultan-bb3a90166</t>
+          <t>https://pk.linkedin.com/in/muhammad-baqir-15614b145</t>
         </is>
       </c>
     </row>
@@ -1726,7 +1726,7 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>https://pk.linkedin.com/in/nayab-imtiaz-589a30111</t>
+          <t>https://pk.linkedin.com/in/muhammad-abrar-32b33216a</t>
         </is>
       </c>
     </row>
@@ -1736,7 +1736,7 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>https://pk.linkedin.com/in/malik-waqas-akbar-a9a67680</t>
+          <t>https://pk.linkedin.com/in/muhammad-umer-195987158</t>
         </is>
       </c>
     </row>
@@ -1746,7 +1746,7 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>https://pk.linkedin.com/in/umer-saeed-9034521b4</t>
+          <t>https://pk.linkedin.com/in/muhammad-abdullah-408134202</t>
         </is>
       </c>
     </row>
@@ -1756,7 +1756,7 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>https://pk.linkedin.com/in/abdullah-rao-924152201</t>
+          <t>https://pk.linkedin.com/in/muhammad-tanveer-sultan-bb3a90166</t>
         </is>
       </c>
     </row>
@@ -1766,7 +1766,7 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>https://pk.linkedin.com/in/ahmad-ali-3932a21a3</t>
+          <t>https://pk.linkedin.com/in/usama-zaid-pak</t>
         </is>
       </c>
     </row>
@@ -1776,7 +1776,7 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>https://pk.linkedin.com/in/mudassir-ali-zaidi-486a96120</t>
+          <t>https://pk.linkedin.com/in/malik-waqas-akbar-a9a67680</t>
         </is>
       </c>
     </row>
@@ -1786,7 +1786,7 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>https://pk.linkedin.com/in/ammara-khalid-4ba14a136</t>
+          <t>https://pk.linkedin.com/in/umer-saeed-9034521b4</t>
         </is>
       </c>
     </row>
@@ -1796,7 +1796,7 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>https://pk.linkedin.com/in/yasir-rauf-62997b130</t>
+          <t>https://pk.linkedin.com/in/nayab-imtiaz-589a30111</t>
         </is>
       </c>
     </row>
@@ -1806,7 +1806,7 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>https://pk.linkedin.com/in/syedyousafshah?trk=public_profile_samename-profile</t>
+          <t>https://pk.linkedin.com/in/abdullah-rao-924152201</t>
         </is>
       </c>
     </row>
@@ -1816,7 +1816,7 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>https://pk.linkedin.com/in/salman-saleem-29205a17a</t>
+          <t>https://pk.linkedin.com/in/ahmad-ali-3932a21a3</t>
         </is>
       </c>
     </row>
@@ -1826,7 +1826,7 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>https://pk.linkedin.com/in/babarlhr</t>
+          <t>https://pk.linkedin.com/in/mudassir-ali-zaidi-486a96120</t>
         </is>
       </c>
     </row>
@@ -1836,7 +1836,7 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>https://pk.linkedin.com/in/mujeebishaque</t>
+          <t>https://pk.linkedin.com/in/yasir-rauf-62997b130</t>
         </is>
       </c>
     </row>
@@ -1846,7 +1846,7 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>https://pk.linkedin.com/in/hafiza-nafeesa-asif-0a7068199</t>
+          <t>https://pk.linkedin.com/in/ammara-khalid-4ba14a136</t>
         </is>
       </c>
     </row>
@@ -1856,7 +1856,7 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>https://pk.linkedin.com/in/batool-fatima-b3b737209</t>
+          <t>https://pk.linkedin.com/in/syedyousafshah?trk=public_profile_samename-profile</t>
         </is>
       </c>
     </row>
@@ -1866,7 +1866,7 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>https://pk.linkedin.com/in/ghayoorulhaq</t>
+          <t>https://pk.linkedin.com/in/salman-saleem-29205a17a</t>
         </is>
       </c>
     </row>
@@ -1876,7 +1876,7 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>https://pk.linkedin.com/in/amir-sohail-ab8b611b3</t>
+          <t>https://pk.linkedin.com/in/babarlhr</t>
         </is>
       </c>
     </row>
@@ -1886,7 +1886,7 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>https://pk.linkedin.com/in/theumaraziz</t>
+          <t>https://pk.linkedin.com/in/mujeebishaque</t>
         </is>
       </c>
     </row>
@@ -1896,7 +1896,7 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>https://pk.linkedin.com/in/test1-account-682222205</t>
+          <t>https://pk.linkedin.com/in/batool-fatima-b3b737209</t>
         </is>
       </c>
     </row>
@@ -1906,7 +1906,7 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>https://pk.linkedin.com/in/awais-gill</t>
+          <t>https://pk.linkedin.com/in/ali-shahzad-4a301b17a</t>
         </is>
       </c>
     </row>
@@ -1916,7 +1916,7 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>https://pk.linkedin.com/in/hamza-gul-31178454</t>
+          <t>https://pk.linkedin.com/in/amir-sohail-ab8b611b3</t>
         </is>
       </c>
     </row>
@@ -1926,7 +1926,7 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>https://pk.linkedin.com/in/tallal-ali-44579b131</t>
+          <t>https://pk.linkedin.com/in/theumaraziz</t>
         </is>
       </c>
     </row>
@@ -1936,7 +1936,7 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>https://pk.linkedin.com/in/umair-khadim-349439129</t>
+          <t>https://pk.linkedin.com/in/test1-account-682222205</t>
         </is>
       </c>
     </row>
@@ -1946,7 +1946,7 @@
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>https://pk.linkedin.com/in/hassan-khan-863597208</t>
+          <t>https://pk.linkedin.com/in/awais-gill</t>
         </is>
       </c>
     </row>
@@ -1956,7 +1956,7 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>https://pk.linkedin.com/in/muhammad-usama-522760130</t>
+          <t>https://pk.linkedin.com/in/hamza-gul-31178454</t>
         </is>
       </c>
     </row>
@@ -1966,7 +1966,7 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>https://pk.linkedin.com/in/wardah-arshad-b0347b216</t>
+          <t>https://pk.linkedin.com/in/tallal-ali-44579b131</t>
         </is>
       </c>
     </row>
@@ -1976,7 +1976,7 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>https://pk.linkedin.com/in/arslan-asghar-6aa599148</t>
+          <t>https://pk.linkedin.com/in/umair-khadim-349439129</t>
         </is>
       </c>
     </row>
@@ -1986,7 +1986,7 @@
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>https://pk.linkedin.com/in/umar-qayyum</t>
+          <t>https://pk.linkedin.com/in/hassan-khan-863597208</t>
         </is>
       </c>
     </row>
@@ -1996,7 +1996,7 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>https://pk.linkedin.com/in/muhammad-haroon-411b4460</t>
+          <t>https://pk.linkedin.com/in/wardah-arshad-b0347b216</t>
         </is>
       </c>
     </row>
@@ -2006,7 +2006,7 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>https://pk.linkedin.com/in/muhammad-adeel-afzal</t>
+          <t>https://pk.linkedin.com/in/umar-qayyum</t>
         </is>
       </c>
     </row>
@@ -2016,7 +2016,7 @@
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>https://pk.linkedin.com/in/nouman-mustafa-a2a82941</t>
+          <t>https://pk.linkedin.com/in/muhammad-haroon-411b4460</t>
         </is>
       </c>
     </row>
@@ -2026,7 +2026,7 @@
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>https://pk.linkedin.com/in/muhammad-afzaal07?trk=public_profile_browsemap</t>
+          <t>https://pk.linkedin.com/in/muhammad-adeel-afzal</t>
         </is>
       </c>
     </row>
@@ -2036,107 +2036,7 @@
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>https://pk.linkedin.com/in/airej-anwar-876823167</t>
-        </is>
-      </c>
-    </row>
-    <row r="162">
-      <c r="A162" s="1" t="n">
-        <v>160</v>
-      </c>
-      <c r="B162" t="inlineStr">
-        <is>
-          <t>https://pk.linkedin.com/in/aali-zain</t>
-        </is>
-      </c>
-    </row>
-    <row r="163">
-      <c r="A163" s="1" t="n">
-        <v>161</v>
-      </c>
-      <c r="B163" t="inlineStr">
-        <is>
-          <t>https://pk.linkedin.com/in/asad-ali-21197a177</t>
-        </is>
-      </c>
-    </row>
-    <row r="164">
-      <c r="A164" s="1" t="n">
-        <v>162</v>
-      </c>
-      <c r="B164" t="inlineStr">
-        <is>
-          <t>https://pk.linkedin.com/in/ahsan-ali-164a821a2</t>
-        </is>
-      </c>
-    </row>
-    <row r="165">
-      <c r="A165" s="1" t="n">
-        <v>163</v>
-      </c>
-      <c r="B165" t="inlineStr">
-        <is>
-          <t>https://pk.linkedin.com/in/tariqfarooq95</t>
-        </is>
-      </c>
-    </row>
-    <row r="166">
-      <c r="A166" s="1" t="n">
-        <v>164</v>
-      </c>
-      <c r="B166" t="inlineStr">
-        <is>
-          <t>https://pk.linkedin.com/in/shumaila-nazir-800619221</t>
-        </is>
-      </c>
-    </row>
-    <row r="167">
-      <c r="A167" s="1" t="n">
-        <v>165</v>
-      </c>
-      <c r="B167" t="inlineStr">
-        <is>
-          <t>https://pk.linkedin.com/in/hassan-raza-b2a9671ab</t>
-        </is>
-      </c>
-    </row>
-    <row r="168">
-      <c r="A168" s="1" t="n">
-        <v>166</v>
-      </c>
-      <c r="B168" t="inlineStr">
-        <is>
-          <t>https://pk.linkedin.com/in/asim-malik-168014a0</t>
-        </is>
-      </c>
-    </row>
-    <row r="169">
-      <c r="A169" s="1" t="n">
-        <v>167</v>
-      </c>
-      <c r="B169" t="inlineStr">
-        <is>
-          <t>https://pk.linkedin.com/in/adnan-chaudhary-99455110b</t>
-        </is>
-      </c>
-    </row>
-    <row r="170">
-      <c r="A170" s="1" t="n">
-        <v>168</v>
-      </c>
-      <c r="B170" t="inlineStr">
-        <is>
-          <t>https://pk.linkedin.com/in/touqeer-abbas</t>
-        </is>
-      </c>
-    </row>
-    <row r="171">
-      <c r="A171" s="1" t="n">
-        <v>169</v>
-      </c>
-      <c r="B171" t="inlineStr">
-        <is>
-          <t>https://pk.linkedin.com/in/abdul-wahab-aa15341a3</t>
+          <t>https://pk.linkedin.com/in/muhammad-afzaal07?trk=public_profile_browsemap</t>
         </is>
       </c>
     </row>
